--- a/data-raw/source_list.xlsx
+++ b/data-raw/source_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Dropbox\Dropbox\cspp\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleblucas/Dropbox/cspp_old/cspp/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F56B3-4060-4C1F-937E-5D75F51CB502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12B9A26-4F9E-8247-8DEF-0C7C1DF131F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="source_list" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="447">
   <si>
     <t>sources</t>
   </si>
@@ -855,12 +855,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">  year={2017}</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>CQ Press. 'State Stats: Population under 5 years old.' http://library.cqpress.com/cqresearcher/index.php
 Originally provided by Stateminder: A data visualization project from Georgetown University. http://stateminder.org/ (no longer accessible online)</t>
   </si>
@@ -1673,12 +1667,772 @@
   publisher={US Census Bureau Washington, DC}
 }</t>
   </si>
+  <si>
+    <t>Squire, P., 2008. Measuring the professionalization of US state courts of last resort. State Politics &amp; Policy Quarterly, 8(3), pp.223-238.</t>
+  </si>
+  <si>
+    <t>article{squire2008measuring,
+  title={Measuring the professionalization of US state courts of last resort},
+  author={Squire, Peverill},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={8},
+  number={3},
+  pages={223--238},
+  year={2008},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Melki, M. and Pickering, A.C., 2016. Polarization and Corruption in America. Department of Economics and Related Studies, University of York.</t>
+  </si>
+  <si>
+    <t>book{melki2016polarization,
+  title={Polarization and Corruption in America},
+  author={Melki, Mickael and Pickering, Andrew C and others},
+  year={2016},
+  publisher={Department of Economics and Related Studies, University of York}
+}</t>
+  </si>
+  <si>
+    <t>Sauter, M.B., Comen, E., Stebbins, S. and Frohlich, T.C., 2017. The Best and Worst Run States in America: A Survey of All 50. 247wallst. com.</t>
+  </si>
+  <si>
+    <t>misc{sauter2017best,
+  title={The Best and Worst Run States in America: A Survey of All 50. 247wallst. com},
+  author={Sauter, MB and Comen, E and Stebbins, S and Frohlich, TC},
+  year={2017}
+}</t>
+  </si>
+  <si>
+    <t>Karch, A., Nicholson-Crotty, S.C., Woods, N.D. and Bowman, A.O.M., 2016. Policy diffusion and the pro-innovation bias. Political Research Quarterly, 69(1), pp.83-95.</t>
+  </si>
+  <si>
+    <t>article{karch2016policy,
+  title={Policy diffusion and the pro-innovation bias},
+  author={Karch, Andrew and Nicholson-Crotty, Sean C and Woods, Neal D and Bowman, Ann O’M},
+  journal={Political Research Quarterly},
+  volume={69},
+  number={1},
+  pages={83--95},
+  year={2016},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Boehmke, F.J. and Witmer, R., 2004. Disentangling diffusion: The effects of social learning and economic competition on state policy innovation and expansion. Political Research Quarterly, 57(1), pp.39-51.</t>
+  </si>
+  <si>
+    <t>article{boehmke2004disentangling,
+  title={Disentangling diffusion: The effects of social learning and economic competition on state policy innovation and expansion},
+  author={Boehmke, Frederick J and Witmer, Richard},
+  journal={Political Research Quarterly},
+  volume={57},
+  number={1},
+  pages={39--51},
+  year={2004},
+  publisher={Sage Publications Sage CA: Thousand Oaks, CA}
+}</t>
+  </si>
+  <si>
+    <t>Biggers, D.R. and Hanmer, M.J., 2017. Understanding the adoption of voter identification laws in the American states. American Politics Research, 45(4), pp.560-588.</t>
+  </si>
+  <si>
+    <t>article{biggers2017understanding,
+  title={Understanding the adoption of voter identification laws in the American states},
+  author={Biggers, Daniel R and Hanmer, Michael J},
+  journal={American Politics Research},
+  volume={45},
+  number={4},
+  pages={560--588},
+  year={2017},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>McDonald, M.P., 2002. The turnout rate among eligible voters in the states, 1980–2000. State Politics &amp; Policy Quarterly, 2(2), pp.199-212.</t>
+  </si>
+  <si>
+    <t>article{mcdonald2002turnout,
+  title={The turnout rate among eligible voters in the states, 1980--2000},
+  author={McDonald, Michael P},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={2},
+  number={2},
+  pages={199--212},
+  year={2002},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Klarner, C., 2013. Other scholars’ competitiveness measures. Harvard Dataverse, 1.</t>
+  </si>
+  <si>
+    <t>@article{klarner2013other,
+  title={Other scholars’ competitiveness measures},
+  author={Klarner, Carl},
+  journal={Harvard Dataverse},
+  volume={1},
+  year={2013}
+}</t>
+  </si>
+  <si>
+    <t>Ranney, A., 1976. Parties in state politics. Politics in the American states, 3.</t>
+  </si>
+  <si>
+    <t>article{ranney1976parties,
+  title={Parties in state politics},
+  author={Ranney, Austin},
+  journal={Politics in the American states},
+  volume={3},
+  year={1976},
+  publisher={Little, Brown Boston, MA}
+}</t>
+  </si>
+  <si>
+    <t>article{klarner2013other,
+  title={Other scholars’ competitiveness measures},
+  author={Klarner, Carl},
+  journal={Harvard Dataverse},
+  volume={1},
+  year={2013}
+}</t>
+  </si>
+  <si>
+    <t>@article{ranney1976parties,
+  title={Parties in state politics},
+  author={Ranney, Austin},
+  journal={Politics in the American states},
+  volume={3},
+  year={1976},
+  publisher={Little, Brown Boston, MA}
+}</t>
+  </si>
+  <si>
+    <t>Holbrook, T.M. and Van Dunk, E., 1993. Electoral competition in the American states. American Political Science Review, pp.955-962.</t>
+  </si>
+  <si>
+    <t>article{holbrook1993electoral,
+  title={Electoral competition in the American states},
+  author={Holbrook, Thomas M and Van Dunk, Emily},
+  journal={American Political Science Review},
+  pages={955--962},
+  year={1993},
+  publisher={JSTOR}
+}</t>
+  </si>
+  <si>
+    <t>Shufeldt, G. and Flavin, P., 2012. Two distinct concepts: Party competition in government and electoral competition in the American states. State Politics &amp; Policy Quarterly, 12(3), pp.330-342.</t>
+  </si>
+  <si>
+    <t>article{shufeldt2012two,
+  title={Two distinct concepts: Party competition in government and electoral competition in the American states},
+  author={Shufeldt, Gregory and Flavin, Patrick},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={12},
+  number={3},
+  pages={330--342},
+  year={2012},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Kulesza, C., Witko, C. and Waltenburg, E., 2015. State Campaign Finance Regulatory Stringency Index, 1992-2012. Harvard Dataverse, 1.</t>
+  </si>
+  <si>
+    <t>article{kulesza2015state,
+  title={State Campaign Finance Regulatory Stringency Index, 1992-2012},
+  author={Kulesza, Christopher and Witko, Christopher and Waltenburg, Eric},
+  journal={Harvard Dataverse},
+  volume={1},
+  year={2015}
+}</t>
+  </si>
+  <si>
+    <t>Gray, V. and Lowery, D., 1988. Interest group politics and economic growth in the US states. The American Political Science Review, pp.109-131.</t>
+  </si>
+  <si>
+    <t>@article{gray1988interest,
+  title={Interest group politics and economic growth in the US states},
+  author={Gray, Virginia and Lowery, David},
+  journal={The American Political Science Review},
+  pages={109--131},
+  year={1988},
+  publisher={JSTOR}
+}</t>
+  </si>
+  <si>
+    <t>Lowery, D., Gray, V. and Cluverius, J., 2015. Temporal change in the density of state interest communities: 1980 to 2007. State Politics &amp; Policy Quarterly, 15(2), pp.263-286.</t>
+  </si>
+  <si>
+    <t>article{lowery2015temporal,
+  title={Temporal change in the density of state interest communities: 1980 to 2007},
+  author={Lowery, David and Gray, Virginia and Cluverius, John},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={15},
+  number={2},
+  pages={263--286},
+  year={2015},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Conger, K.H., 2010. A matter of context: Christian right influence in US state republican politics. State Politics &amp; Policy Quarterly, 10(3), pp.248-269.</t>
+  </si>
+  <si>
+    <t>article{conger2010matter,
+  title={A matter of context: Christian right influence in US state republican politics},
+  author={Conger, Kimberly H},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={10},
+  number={3},
+  pages={248--269},
+  year={2010},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Rigby, E. and Wright, G.C., 2013. Political parties and representation of the poor in the American states. American Journal of Political Science, 57(3), pp.552-565.</t>
+  </si>
+  <si>
+    <t>article{rigby2013political,
+  title={Political parties and representation of the poor in the American states},
+  author={Rigby, Elizabeth and Wright, Gerald C},
+  journal={American Journal of Political Science},
+  volume={57},
+  number={3},
+  pages={552--565},
+  year={2013},
+  publisher={Wiley Online Library}
+}</t>
+  </si>
+  <si>
+    <t>Jacoby, W.G. and Schneider, S.K., 2009. A new measure of policy spending priorities in the American states. Political Analysis, pp.1-24.</t>
+  </si>
+  <si>
+    <t>article{jacoby2009new,
+  title={A new measure of policy spending priorities in the American states},
+  author={Jacoby, William G and Schneider, Saundra K},
+  journal={Political Analysis},
+  pages={1--24},
+  year={2009},
+  publisher={JSTOR}
+}</t>
+  </si>
+  <si>
+    <t>Jaeger, W.P., Lyons, J. and Wolak, J., 2017. Political knowledge and policy representation in the states. American Politics Research, 45(6), pp.907-938.</t>
+  </si>
+  <si>
+    <t>article{jaeger2017political,
+  title={Political knowledge and policy representation in the states},
+  author={Jaeger, William P and Lyons, Jeffrey and Wolak, Jennifer},
+  journal={American Politics Research},
+  volume={45},
+  number={6},
+  pages={907--938},
+  year={2017},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Kohut, A., Morin, R. and Keeter, S., 2007. What Americans know: 1989-2007, Public knowledge of current affairs little changed by news and information revolutions. PEW Research Center, April, 15.</t>
+  </si>
+  <si>
+    <t>article{kohut2007americans,
+  title={What Americans know: 1989-2007, Public knowledge of current affairs little changed by news and information revolutions},
+  author={Kohut, Andrew and Morin, Richard and Keeter, Scott},
+  journal={PEW Research Center, April},
+  volume={15},
+  year={2007}
+}</t>
+  </si>
+  <si>
+    <t>Hawes, D., Rocha, R. and Meier, K., 2013. Social capital in the 50 states: Measuring state-level social capital, 1986–2004. State Politics &amp; Policy Quarterly, 13(1), pp.121-138.</t>
+  </si>
+  <si>
+    <t>article{hawes2013social,
+  title={Social capital in the 50 states: Measuring state-level social capital, 1986--2004},
+  author={Hawes, Daniel and Rocha, Rene and Meier, Kenneth},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={13},
+  number={1},
+  pages={121--138},
+  year={2013},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Daniel, E., 1966. American Federalism: A View from the States. New York: ThomasY. Crowell Company, pp.130-40.</t>
+  </si>
+  <si>
+    <t>article{daniel1966american,
+  title={American Federalism: A View from the States},
+  author={Daniel, Elazar},
+  journal={New York: ThomasY. Crowell Company},
+  pages={130--40},
+  year={1966}
+}</t>
+  </si>
+  <si>
+    <t>Erikson, R.S., Wright, G.C., Wright, G.C. and McIver, J.P., 1993. Statehouse democracy: Public opinion and policy in the American states. Cambridge University Press.</t>
+  </si>
+  <si>
+    <t>book{erikson1993statehouse,
+  title={Statehouse democracy: Public opinion and policy in the American states},
+  author={Erikson, Robert S and Wright, Gerald C and Wright, Gerald C and McIver, John P},
+  year={1993},
+  publisher={Cambridge University Press}
+}</t>
+  </si>
+  <si>
+    <t>Enns, P.K. and Koch, J., 2013. Public Opinion in the US States: 1956 to 2010. State Politics &amp; Policy Quarterly, 13(3), pp.349-372.</t>
+  </si>
+  <si>
+    <t>article{enns2013public,
+  title={Public Opinion in the US States: 1956 to 2010},
+  author={Enns, Peter K and Koch, Julianna},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={13},
+  number={3},
+  pages={349--372},
+  year={2013},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Rentfrow, P.J., Gosling, S.D. and Potter, J., 2008. A theory of the emergence, persistence, and expression of geographic variation in psychological characteristics. Perspectives on Psychological Science, 3(5), pp.339-369.</t>
+  </si>
+  <si>
+    <t>@article{rentfrow2008theory,
+  title={A theory of the emergence, persistence, and expression of geographic variation in psychological characteristics},
+  author={Rentfrow, Peter J and Gosling, Samuel D and Potter, Jeff},
+  journal={Perspectives on Psychological Science},
+  volume={3},
+  number={5},
+  pages={339--369},
+  year={2008},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Eun Kim, S. and Urpelainen, J., 2018. Environmental public opinion in US states, 1973–2012. Environmental Politics, 27(1), pp.89-114.</t>
+  </si>
+  <si>
+    <t>article{eun2018environmental,
+  title={Environmental public opinion in US states, 1973--2012},
+  author={Eun Kim, Sung and Urpelainen, Johannes},
+  journal={Environmental Politics},
+  volume={27},
+  number={1},
+  pages={89--114},
+  year={2018},
+  publisher={Taylor \&amp; Francis}
+}</t>
+  </si>
+  <si>
+    <t>Boushey, G., 2016. Targeted for diffusion? How the use and acceptance of stereotypes shape the diffusion of criminal justice policy innovations in the American states. The American Political Science Review, 110(1), p.198.</t>
+  </si>
+  <si>
+    <t>article{boushey2016targeted,
+  title={Targeted for diffusion? How the use and acceptance of stereotypes shape the diffusion of criminal justice policy innovations in the American states},
+  author={Boushey, Graeme},
+  journal={The American Political Science Review},
+  volume={110},
+  number={1},
+  pages={198},
+  year={2016},
+  publisher={Cambridge University Press}
+}</t>
+  </si>
+  <si>
+    <t>Boehmke, F.J., Brockway, M., Desmarais, B., Harden, J.J., LaCombe, S., Linder, F. and Wallach, H., 2018. State Policy Innovation and Diffusion (SPID) Database v1. 0. Data File and Codebook]. Harvard Dataverse, 10.</t>
+  </si>
+  <si>
+    <t>@article{boushey2016targeted,
+  title={Targeted for diffusion? How the use and acceptance of stereotypes shape the diffusion of criminal justice policy innovations in the American states},
+  author={Boushey, Graeme},
+  journal={The American Political Science Review},
+  volume={110},
+  number={1},
+  pages={198},
+  year={2016},
+  publisher={Cambridge University Press}
+}</t>
+  </si>
+  <si>
+    <t>article{boehmke2018state,
+  title={State Policy Innovation and Diffusion (SPID) Database v1. 0},
+  author={Boehmke, Frederick J and Brockway, Mark and Desmarais, Bruce and Harden, Jeffrey J and LaCombe, Scott and Linder, Fridolin and Wallach, Hanna},
+  journal={Data File and Codebook]. Harvard Dataverse},
+  volume={10},
+  year={2018}
+}</t>
+  </si>
+  <si>
+    <t>Silver, Diana, and Macinko, James. State Health Policy Research Dataset (SHEPRD): 1980-2010. Inter-university Consortium for Political and Social Research [distributor], 2014-09-24. https://doi.org/10.3886/ICPSR34789.v3</t>
+  </si>
+  <si>
+    <t>article{macinko2012improving,
+  title={Improving state health policy assessment: an agenda for measurement and analysis},
+  author={Macinko, James and Silver, Diana},
+  journal={American journal of public health},
+  volume={102},
+  number={9},
+  pages={1697--1705},
+  year={2012},
+  publisher={American Public Health Association}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second source found through original source site; not sure if proper format </t>
+  </si>
+  <si>
+    <r>
+      <t>Boehmke, F.J. and Skinner, P., 2012. State policy innovativeness revisited. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>State Politics &amp; Policy Quarterly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), pp.303-329.</t>
+    </r>
+  </si>
+  <si>
+    <t>article{boehmke2012state,
+  title={State policy innovativeness revisited},
+  author={Boehmke, Frederick J and Skinner, Paul},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={12},
+  number={3},
+  pages={303--329},
+  year={2012},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Boehmke, F.J. and Skinner, P., 2012. State policy innovativeness revisited. State Politics &amp; Policy Quarterly, 12(3), pp.303-329.</t>
+  </si>
+  <si>
+    <t>Mallinson, D.J., 2016. Building a better speed trap: Measuring policy adoption speed in the American states. State Politics &amp; Policy Quarterly, 16(1), pp.98-120.</t>
+  </si>
+  <si>
+    <t>@article{mallinson2016building,
+  title={Building a better speed trap: Measuring policy adoption speed in the American states},
+  author={Mallinson, Daniel J},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={16},
+  number={1},
+  pages={98--120},
+  year={2016},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Makse, T. and Volden, C., 2011. The role of policy attributes in the diffusion of innovations. The Journal of Politics, 73(1), pp.108-124.</t>
+  </si>
+  <si>
+    <t>article{makse2011role,
+  title={The role of policy attributes in the diffusion of innovations},
+  author={Makse, Todd and Volden, Craig},
+  journal={The Journal of Politics},
+  volume={73},
+  number={1},
+  pages={108--124},
+  year={2011},
+  publisher={Cambridge University Press New York, USA}
+}</t>
+  </si>
+  <si>
+    <t>Lacy, T.A. and Tandberg, D.A., 2014. Rethinking policy diffusion: The interstate spread of “finance innovations”. Research in Higher Education, 55(7), pp.627-649.</t>
+  </si>
+  <si>
+    <t>@article{lacy2014rethinking,
+  title={Rethinking policy diffusion: The interstate spread of “finance innovations”},
+  author={Lacy, T Austin and Tandberg, David A},
+  journal={Research in Higher Education},
+  volume={55},
+  number={7},
+  pages={627--649},
+  year={2014},
+  publisher={Springer}
+}</t>
+  </si>
+  <si>
+    <t>Doyle, W.R., 2006. Adoption of merit-based student grant programs: An event history analysis. Educational evaluation and policy analysis, 28(3), pp.259-285.</t>
+  </si>
+  <si>
+    <t>@article{doyle2006adoption,
+  title={Adoption of merit-based student grant programs: An event history analysis},
+  author={Doyle, William R},
+  journal={Educational evaluation and policy analysis},
+  volume={28},
+  number={3},
+  pages={259--285},
+  year={2006},
+  publisher={SAGE Publications}
+}</t>
+  </si>
+  <si>
+    <t>Curran, F.C., 2015. Expanding downward: Innovation, diffusion, and state policy adoptions of universal preschool. UMBC Faculty Collection.</t>
+  </si>
+  <si>
+    <t>@article{curran2015expanding,
+  title={Expanding downward: Innovation, diffusion, and state policy adoptions of universal preschool},
+  author={Curran, F Chris},
+  journal={UMBC Faculty Collection},
+  year={2015},
+  publisher={Arizona State University}
+}</t>
+  </si>
+  <si>
+    <t>United States. Office of Educational Research, Improvement. Center for Education Statistics and Institute of Education Sciences (US), 2008. Digest of education statistics (Vol. 44). US Department of Health, Education, and Welfare, Education Division, National Center for Education Statistics.</t>
+  </si>
+  <si>
+    <t>book{united2008digest,
+  title={Digest of education statistics},
+  author={United States. Office of Educational Research and Improvement. Center for Education Statistics and Institute of Education Sciences (US)},
+  volume={44},
+  year={2008},
+  publisher={US Department of Health, Education, and Welfare, Education Division~…}
+}</t>
+  </si>
+  <si>
+    <t>Perloff, J., Clarke, S., DesRoches, C.M., O’Reilly-Jacob, M. and Buerhaus, P., 2019. Association of state-level restrictions in nurse practitioner scope of practice with the quality of primary care provided to Medicare beneficiaries. Medical Care Research and Review, 76(5), pp.597-626.</t>
+  </si>
+  <si>
+    <t>@article{perloff2019association,
+  title={Association of state-level restrictions in nurse practitioner scope of practice with the quality of primary care provided to Medicare beneficiaries},
+  author={Perloff, Jennifer and Clarke, Sean and DesRoches, Catherine M and O’Reilly-Jacob, Monica and Buerhaus, Peter},
+  journal={Medical Care Research and Review},
+  volume={76},
+  number={5},
+  pages={597--626},
+  year={2019},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>Gray, V., Lowery, D., Monogan, J. and Godwin, E.K., 2010. Incrementing toward nowhere: Universal health care coverage in the states. Publius: The Journal of Federalism, 40(1), pp.82-113.</t>
+  </si>
+  <si>
+    <t>@article{gray2010incrementing,
+  title={Incrementing toward nowhere: Universal health care coverage in the states},
+  author={Gray, Virginia and Lowery, David and Monogan, James and Godwin, Erik K},
+  journal={Publius: The Journal of Federalism},
+  volume={40},
+  number={1},
+  pages={82--113},
+  year={2010},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link doesn't work </t>
+  </si>
+  <si>
+    <t>Kreitzer, R.J., 2015. Politics and morality in state abortion policy. State Politics &amp; Policy Quarterly, 15(1), pp.41-66.</t>
+  </si>
+  <si>
+    <t>article{kreitzer2015politics,
+  title={Politics and morality in state abortion policy},
+  author={Kreitzer, Rebecca J},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={15},
+  number={1},
+  pages={41--66},
+  year={2015},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>article{mallinson2016building,
+  title={Building a better speed trap: Measuring policy adoption speed in the American states},
+  author={Mallinson, Daniel J},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={16},
+  number={1},
+  pages={98--120},
+  year={2016},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>"Recommended citation:
+Movement Advancement Project. "Equality Maps: State Nondiscrimination Laws." https://www.lgbtmap.org/equality-maps/non_discrimination_laws (date of access)."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Google Scholar Results Match; Source I found on original site  </t>
+  </si>
+  <si>
+    <t>Matisoff, D.C. and Edwards, J., 2014. Kindred spirits or intergovernmental competition? The innovation and diffusion of energy policies in the American states (1990–2008). Environmental Politics, 23(5), pp.795-817.</t>
+  </si>
+  <si>
+    <t>@article{matisoff2014kindred,
+  title={Kindred spirits or intergovernmental competition? The innovation and diffusion of energy policies in the American states (1990--2008)},
+  author={Matisoff, Daniel C and Edwards, Jason},
+  journal={Environmental Politics},
+  volume={23},
+  number={5},
+  pages={795--817},
+  year={2014},
+  publisher={Taylor \&amp; Francis}
+}</t>
+  </si>
+  <si>
+    <t>Blasing, T.J., Broniak, C.T. and Marland, G., 2004. Estimates of annual fossil-fuel CO2 emitted for each state in the USA and the District of Columbia for each year from 1960 through 2001, Carbon Dioxide Inf. Anal. Cent., Oak Ridge Natl. Lab., U, S. Dep. of Energy, Oak Ridge, Tenn.</t>
+  </si>
+  <si>
+    <t>article{blasing2004estimates,
+  title={Estimates of annual fossil-fuel CO2 emitted for each state in the USA and the District of Columbia for each year from 1960 through 2001, Carbon Dioxide Inf},
+  author={Blasing, TJ and Broniak, CT and Marland, G},
+  journal={Anal. Cent., Oak Ridge Natl. Lab., U, S. Dep. of Energy, Oak Ridge, Tenn},
+  year={2004}
+}</t>
+  </si>
+  <si>
+    <t>United States. Energy Information Administration, 2006. Annual Energy Review 2005. Energy Information Administration.</t>
+  </si>
+  <si>
+    <t>book{united2006annual,
+  title={Annual Energy Review 2005},
+  author={United States. Energy Information Administration},
+  year={2006},
+  publisher={Energy Information Administration}
+}</t>
+  </si>
+  <si>
+    <t>Closest EIA citation for that year is for entire report. Not sure if that works or not specific enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Google Scholar Results Match </t>
+  </si>
+  <si>
+    <r>
+      <t>Loughhead, K., 2018. How High Are Beer Taxes in Your State?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tax Foundation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>@article{loughhead2018high,
+  title={How High Are Beer Taxes in Your State?},
+  author={Loughhead, Katherine},
+  journal={Tax Foundation},
+  year={2018}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>Caughey, D. and Warshaw, C., 2016. The dynamics of state policy liberalism, 1936–2014. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>American Journal of Political Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), pp.899-913.</t>
+    </r>
+  </si>
+  <si>
+    <t>Frendreis, J. and Tatalovich, R., 2010. “A Hundred Miles of Dry”: religion and the persistence of prohibition in the US States. State Politics &amp; Policy Quarterly, 10(3), pp.302-319.</t>
+  </si>
+  <si>
+    <t>@article{frendreis2010hundred,
+  title={“A Hundred Miles of Dry”: religion and the persistence of prohibition in the US States},
+  author={Frendreis, John and Tatalovich, Raymond},
+  journal={State Politics \&amp; Policy Quarterly},
+  volume={10},
+  number={3},
+  pages={302--319},
+  year={2010},
+  publisher={SAGE Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,6 +2576,19 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2168,7 +2935,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2181,6 +2948,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2538,22 +3306,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="85.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="85.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
     <col min="5" max="5" width="70" customWidth="1"/>
     <col min="6" max="6" width="28" style="3" customWidth="1"/>
     <col min="7" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2582,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2593,13 +3361,13 @@
         <v>198</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -2611,7 +3379,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2640,18 +3408,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -2669,7 +3437,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2677,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -2698,19 +3466,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +3495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2735,16 +3503,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -2756,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2764,16 +3532,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -2785,47 +3553,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -2840,10 +3608,10 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2851,10 +3619,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -2872,19 +3640,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -2901,19 +3669,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
@@ -2930,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2938,10 +3706,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -2956,21 +3724,21 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -2985,10 +3753,10 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2996,10 +3764,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -3017,7 +3785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3025,10 +3793,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -3046,7 +3814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3054,10 +3822,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -3075,18 +3843,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3104,18 +3872,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -3133,18 +3901,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -3162,18 +3930,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" t="s">
         <v>345</v>
       </c>
-      <c r="C22" t="s">
-        <v>347</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -3191,19 +3959,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
@@ -3220,19 +3988,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
@@ -3249,19 +4017,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
@@ -3278,19 +4046,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +4075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3315,10 +4083,10 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -3336,36 +4104,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
         <v>250</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3373,10 +4141,10 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -3394,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3402,10 +4170,10 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -3423,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3431,10 +4199,10 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -3452,18 +4220,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -3481,18 +4249,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -3510,18 +4278,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -3539,7 +4307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3547,10 +4315,10 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -3568,7 +4336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3576,10 +4344,10 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -3597,7 +4365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3605,10 +4373,10 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -3626,7 +4394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3634,10 +4402,10 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -3655,7 +4423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3663,10 +4431,10 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -3684,18 +4452,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -3713,7 +4481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3721,10 +4489,10 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -3742,7 +4510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3750,10 +4518,10 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -3771,7 +4539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3779,10 +4547,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -3800,7 +4568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3808,10 +4576,10 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -3829,7 +4597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3837,10 +4605,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -3858,7 +4626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3866,10 +4634,10 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -3887,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3895,10 +4663,10 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -3916,7 +4684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3924,10 +4692,10 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -3945,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3953,10 +4721,10 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -3974,7 +4742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3982,10 +4750,10 @@
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -4003,7 +4771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4011,10 +4779,10 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -4032,7 +4800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4040,10 +4808,10 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -4061,7 +4829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4069,10 +4837,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -4090,7 +4858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4098,10 +4866,10 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -4119,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4127,10 +4895,10 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -4148,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4156,10 +4924,10 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -4177,7 +4945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4185,10 +4953,10 @@
         <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -4206,7 +4974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4214,10 +4982,10 @@
         <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -4235,7 +5003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4243,10 +5011,10 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -4264,7 +5032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4272,10 +5040,10 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -4293,7 +5061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4301,10 +5069,10 @@
         <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -4322,7 +5090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4330,10 +5098,10 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -4351,7 +5119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4359,10 +5127,10 @@
         <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -4380,7 +5148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4388,10 +5156,10 @@
         <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -4409,7 +5177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4417,10 +5185,10 @@
         <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -4438,7 +5206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4446,10 +5214,10 @@
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -4467,7 +5235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4475,10 +5243,10 @@
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -4496,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4504,10 +5272,10 @@
         <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -4525,7 +5293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4533,10 +5301,10 @@
         <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -4554,18 +5322,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -4583,19 +5351,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C71" t="s">
-        <v>260</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
@@ -4612,19 +5380,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C72" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
@@ -4641,18 +5409,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -4670,18 +5438,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -4699,7 +5467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4707,10 +5475,10 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -4728,18 +5496,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -4757,7 +5525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4765,10 +5533,10 @@
         <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -4786,19 +5554,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C78" t="s">
-        <v>271</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
@@ -4815,19 +5583,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C79" t="s">
-        <v>274</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
@@ -4844,7 +5612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4852,10 +5620,10 @@
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -4873,7 +5641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4881,10 +5649,10 @@
         <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -4902,19 +5670,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C82" t="s">
-        <v>279</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
@@ -4931,19 +5699,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C83" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
@@ -4960,7 +5728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4968,10 +5736,10 @@
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -4989,19 +5757,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" t="s">
+        <v>283</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C85" t="s">
-        <v>285</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
@@ -5018,19 +5786,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C86" t="s">
-        <v>288</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
@@ -5047,19 +5815,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C87" t="s">
-        <v>291</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
@@ -5076,19 +5844,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
@@ -5105,7 +5873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5113,10 +5881,10 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -5134,7 +5902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5142,10 +5910,10 @@
         <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -5163,7 +5931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5171,10 +5939,10 @@
         <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -5192,7 +5960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5200,10 +5968,10 @@
         <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -5221,19 +5989,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C93" t="s">
-        <v>301</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
@@ -5250,18 +6018,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -5279,19 +6047,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C95" t="s">
-        <v>305</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +6076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5316,10 +6084,10 @@
         <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -5337,7 +6105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5345,10 +6113,10 @@
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -5366,7 +6134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5374,10 +6142,10 @@
         <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -5395,7 +6163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5403,10 +6171,10 @@
         <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -5424,7 +6192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5432,10 +6200,10 @@
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -5453,7 +6221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5461,10 +6229,10 @@
         <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -5482,7 +6250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5490,10 +6258,10 @@
         <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -5511,7 +6279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5519,10 +6287,10 @@
         <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -5540,7 +6308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5548,10 +6316,10 @@
         <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -5569,7 +6337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5577,10 +6345,10 @@
         <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -5598,7 +6366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5606,10 +6374,10 @@
         <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -5627,19 +6395,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C107" t="s">
-        <v>318</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="E107" t="s">
         <v>9</v>
       </c>
@@ -5656,19 +6424,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" t="s">
+        <v>319</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C108" t="s">
-        <v>321</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
@@ -5685,7 +6453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5693,10 +6461,10 @@
         <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -5714,19 +6482,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" t="s">
+        <v>322</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C110" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
@@ -5743,7 +6511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5772,7 +6540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5801,7 +6569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5830,7 +6598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5859,7 +6627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5888,7 +6656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5896,15 +6664,15 @@
         <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>9</v>
+        <v>349</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" t="s">
         <v>9</v>
       </c>
       <c r="G116" t="s">
@@ -5917,7 +6685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5925,15 +6693,15 @@
         <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>9</v>
+        <v>351</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" t="s">
         <v>9</v>
       </c>
       <c r="G117" t="s">
@@ -5946,7 +6714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5962,7 +6730,7 @@
       <c r="E118" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" t="s">
         <v>9</v>
       </c>
       <c r="G118" t="s">
@@ -5975,7 +6743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5991,7 +6759,7 @@
       <c r="E119" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" t="s">
         <v>9</v>
       </c>
       <c r="G119" t="s">
@@ -6004,7 +6772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6020,7 +6788,7 @@
       <c r="E120" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" t="s">
         <v>9</v>
       </c>
       <c r="G120" t="s">
@@ -6033,7 +6801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6041,15 +6809,15 @@
         <v>87</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>9</v>
+        <v>353</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" t="s">
         <v>9</v>
       </c>
       <c r="G121" t="s">
@@ -6062,7 +6830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6070,16 +6838,16 @@
         <v>88</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>9</v>
+        <v>355</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>9</v>
+        <v>357</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G122" t="s">
         <v>9</v>
@@ -6091,7 +6859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6099,16 +6867,16 @@
         <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>9</v>
+        <v>359</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>9</v>
+        <v>357</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G123" t="s">
         <v>9</v>
@@ -6120,7 +6888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6128,15 +6896,15 @@
         <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" t="s">
         <v>9</v>
       </c>
       <c r="G124" t="s">
@@ -6149,7 +6917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6157,15 +6925,15 @@
         <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" t="s">
         <v>9</v>
       </c>
       <c r="G125" t="s">
@@ -6178,7 +6946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6186,15 +6954,15 @@
         <v>92</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" t="s">
         <v>9</v>
       </c>
       <c r="G126" t="s">
@@ -6207,7 +6975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6215,15 +6983,15 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" t="s">
         <v>9</v>
       </c>
       <c r="G127" t="s">
@@ -6236,23 +7004,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>94</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>9</v>
+      <c r="C128" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" t="s">
         <v>9</v>
       </c>
       <c r="G128" t="s">
@@ -6265,7 +7033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6273,16 +7041,16 @@
         <v>95</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="G129" t="s">
         <v>9</v>
@@ -6294,7 +7062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6302,16 +7070,16 @@
         <v>96</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="G130" t="s">
         <v>9</v>
@@ -6323,7 +7091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6331,16 +7099,16 @@
         <v>97</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -6352,7 +7120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6360,16 +7128,16 @@
         <v>98</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G132" t="s">
         <v>9</v>
@@ -6381,7 +7149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6389,16 +7157,16 @@
         <v>99</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G133" t="s">
         <v>9</v>
@@ -6410,7 +7178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6418,16 +7186,16 @@
         <v>100</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G134" t="s">
         <v>9</v>
@@ -6439,7 +7207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6447,16 +7215,16 @@
         <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -6468,7 +7236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6476,16 +7244,16 @@
         <v>102</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -6497,7 +7265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6505,16 +7273,16 @@
         <v>103</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
@@ -6526,7 +7294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6534,16 +7302,16 @@
         <v>104</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G138" t="s">
         <v>9</v>
@@ -6555,7 +7323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6563,16 +7331,16 @@
         <v>105</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G139" t="s">
         <v>9</v>
@@ -6584,7 +7352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6592,16 +7360,16 @@
         <v>106</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G140" t="s">
         <v>9</v>
@@ -6613,7 +7381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6621,16 +7389,16 @@
         <v>107</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G141" t="s">
         <v>9</v>
@@ -6642,7 +7410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6650,16 +7418,16 @@
         <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G142" t="s">
         <v>9</v>
@@ -6671,7 +7439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6679,16 +7447,16 @@
         <v>109</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>9</v>
+        <v>369</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G143" t="s">
         <v>9</v>
@@ -6700,7 +7468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6708,16 +7476,16 @@
         <v>110</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>9</v>
+        <v>371</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G144" t="s">
         <v>9</v>
@@ -6729,7 +7497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6737,15 +7505,15 @@
         <v>111</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>9</v>
+        <v>373</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" t="s">
         <v>9</v>
       </c>
       <c r="G145" t="s">
@@ -6758,7 +7526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6774,7 +7542,7 @@
       <c r="E146" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" t="s">
         <v>9</v>
       </c>
       <c r="G146" t="s">
@@ -6787,7 +7555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6795,16 +7563,16 @@
         <v>113</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>9</v>
+        <v>375</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="G147" t="s">
         <v>9</v>
@@ -6816,7 +7584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6824,15 +7592,15 @@
         <v>114</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>9</v>
+        <v>379</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" t="s">
         <v>9</v>
       </c>
       <c r="G148" t="s">
@@ -6845,7 +7613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6853,15 +7621,15 @@
         <v>115</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>9</v>
+        <v>381</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" t="s">
         <v>9</v>
       </c>
       <c r="G149" t="s">
@@ -6874,7 +7642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6882,15 +7650,15 @@
         <v>116</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>9</v>
+        <v>383</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" t="s">
         <v>9</v>
       </c>
       <c r="G150" t="s">
@@ -6903,7 +7671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6911,16 +7679,16 @@
         <v>117</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>9</v>
+        <v>385</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>9</v>
+        <v>387</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G151" t="s">
         <v>9</v>
@@ -6932,7 +7700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6940,15 +7708,15 @@
         <v>118</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>9</v>
+        <v>385</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" t="s">
         <v>9</v>
       </c>
       <c r="G152" t="s">
@@ -6961,7 +7729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6969,15 +7737,15 @@
         <v>119</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>9</v>
+        <v>389</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" t="s">
         <v>9</v>
       </c>
       <c r="G153" t="s">
@@ -6990,7 +7758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6998,15 +7766,15 @@
         <v>120</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>9</v>
+        <v>391</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" t="s">
         <v>9</v>
       </c>
       <c r="G154" t="s">
@@ -7019,7 +7787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7027,15 +7795,15 @@
         <v>121</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>9</v>
+        <v>393</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" t="s">
         <v>9</v>
       </c>
       <c r="G155" t="s">
@@ -7048,7 +7816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7056,15 +7824,15 @@
         <v>122</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>9</v>
+        <v>395</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" t="s">
         <v>9</v>
       </c>
       <c r="G156" t="s">
@@ -7077,7 +7845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7085,15 +7853,15 @@
         <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>9</v>
+        <v>397</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" t="s">
         <v>9</v>
       </c>
       <c r="G157" t="s">
@@ -7106,7 +7874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7114,15 +7882,15 @@
         <v>124</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>9</v>
+        <v>399</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" t="s">
         <v>9</v>
       </c>
       <c r="G158" t="s">
@@ -7135,7 +7903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7143,16 +7911,16 @@
         <v>125</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>9</v>
+        <v>401</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G159" t="s">
         <v>9</v>
@@ -7164,7 +7932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7172,16 +7940,16 @@
         <v>126</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>9</v>
+        <v>401</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G160" t="s">
         <v>9</v>
@@ -7193,7 +7961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7201,16 +7969,16 @@
         <v>127</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>9</v>
+        <v>401</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G161" t="s">
         <v>9</v>
@@ -7222,7 +7990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7230,16 +7998,16 @@
         <v>128</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="G162" t="s">
         <v>9</v>
@@ -7248,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="I162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7259,15 +8027,15 @@
         <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" t="s">
         <v>9</v>
       </c>
       <c r="G163" t="s">
@@ -7280,24 +8048,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>9</v>
+      <c r="C164" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G164" t="s">
         <v>9</v>
@@ -7309,7 +8077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7317,28 +8085,28 @@
         <v>131</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>9</v>
+        <v>401</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G165" t="s">
-        <v>9</v>
-      </c>
-      <c r="H165" t="s">
-        <v>9</v>
+        <v>411</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="I165" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7346,16 +8114,16 @@
         <v>132</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>9</v>
+        <v>412</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G166" t="s">
         <v>9</v>
@@ -7367,7 +8135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7375,16 +8143,16 @@
         <v>133</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>9</v>
+        <v>414</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="G167" t="s">
         <v>9</v>
@@ -7396,7 +8164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7412,7 +8180,7 @@
       <c r="E168" t="s">
         <v>9</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" t="s">
         <v>9</v>
       </c>
       <c r="G168" t="s">
@@ -7425,7 +8193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7441,7 +8209,7 @@
       <c r="E169" t="s">
         <v>9</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" t="s">
         <v>9</v>
       </c>
       <c r="G169" t="s">
@@ -7454,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7470,7 +8238,7 @@
       <c r="E170" t="s">
         <v>9</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" t="s">
         <v>9</v>
       </c>
       <c r="G170" t="s">
@@ -7483,7 +8251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7499,7 +8267,7 @@
       <c r="E171" t="s">
         <v>9</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" t="s">
         <v>9</v>
       </c>
       <c r="G171" t="s">
@@ -7512,7 +8280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7528,7 +8296,7 @@
       <c r="E172" t="s">
         <v>9</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" t="s">
         <v>9</v>
       </c>
       <c r="G172" t="s">
@@ -7541,7 +8309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7557,7 +8325,7 @@
       <c r="E173" t="s">
         <v>9</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" t="s">
         <v>9</v>
       </c>
       <c r="G173" t="s">
@@ -7570,7 +8338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7586,7 +8354,7 @@
       <c r="E174" t="s">
         <v>9</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" t="s">
         <v>9</v>
       </c>
       <c r="G174" t="s">
@@ -7599,7 +8367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7615,7 +8383,7 @@
       <c r="E175" t="s">
         <v>9</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" t="s">
         <v>9</v>
       </c>
       <c r="G175" t="s">
@@ -7628,7 +8396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7644,7 +8412,7 @@
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" t="s">
         <v>9</v>
       </c>
       <c r="G176" t="s">
@@ -7657,7 +8425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7673,7 +8441,7 @@
       <c r="E177" t="s">
         <v>9</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" t="s">
         <v>9</v>
       </c>
       <c r="G177" t="s">
@@ -7686,7 +8454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7702,7 +8470,7 @@
       <c r="E178" t="s">
         <v>9</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" t="s">
         <v>9</v>
       </c>
       <c r="G178" t="s">
@@ -7715,7 +8483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7731,7 +8499,7 @@
       <c r="E179" t="s">
         <v>9</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" t="s">
         <v>9</v>
       </c>
       <c r="G179" t="s">
@@ -7744,7 +8512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7760,7 +8528,7 @@
       <c r="E180" t="s">
         <v>9</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" t="s">
         <v>9</v>
       </c>
       <c r="G180" t="s">
@@ -7773,7 +8541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7781,16 +8549,16 @@
         <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>9</v>
+        <v>416</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G181" t="s">
         <v>9</v>
@@ -7802,7 +8570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7810,16 +8578,16 @@
         <v>148</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>9</v>
+        <v>418</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G182" t="s">
         <v>9</v>
@@ -7831,7 +8599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7839,16 +8607,16 @@
         <v>149</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>9</v>
+        <v>420</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G183" t="s">
         <v>9</v>
@@ -7860,7 +8628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7868,15 +8636,15 @@
         <v>150</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>9</v>
+        <v>422</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
       </c>
-      <c r="F184" s="3" t="s">
+      <c r="F184" t="s">
         <v>9</v>
       </c>
       <c r="G184" t="s">
@@ -7889,7 +8657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7905,7 +8673,7 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" t="s">
         <v>9</v>
       </c>
       <c r="G185" t="s">
@@ -7918,7 +8686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7934,7 +8702,7 @@
       <c r="E186" t="s">
         <v>9</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" t="s">
         <v>9</v>
       </c>
       <c r="G186" t="s">
@@ -7947,7 +8715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7963,7 +8731,7 @@
       <c r="E187" t="s">
         <v>9</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" t="s">
         <v>9</v>
       </c>
       <c r="G187" t="s">
@@ -7976,7 +8744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7992,7 +8760,7 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="F188" t="s">
         <v>9</v>
       </c>
       <c r="G188" t="s">
@@ -8005,7 +8773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8021,7 +8789,7 @@
       <c r="E189" t="s">
         <v>9</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" t="s">
         <v>9</v>
       </c>
       <c r="G189" t="s">
@@ -8034,7 +8802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8050,7 +8818,7 @@
       <c r="E190" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" t="s">
         <v>9</v>
       </c>
       <c r="G190" t="s">
@@ -8063,7 +8831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8079,7 +8847,7 @@
       <c r="E191" t="s">
         <v>9</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" t="s">
         <v>9</v>
       </c>
       <c r="G191" t="s">
@@ -8092,7 +8860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8108,7 +8876,7 @@
       <c r="E192" t="s">
         <v>9</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" t="s">
         <v>9</v>
       </c>
       <c r="G192" t="s">
@@ -8121,7 +8889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8137,7 +8905,7 @@
       <c r="E193" t="s">
         <v>9</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" t="s">
         <v>9</v>
       </c>
       <c r="G193" t="s">
@@ -8150,7 +8918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8166,7 +8934,7 @@
       <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" t="s">
         <v>9</v>
       </c>
       <c r="G194" t="s">
@@ -8179,7 +8947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8195,7 +8963,7 @@
       <c r="E195" t="s">
         <v>9</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" t="s">
         <v>9</v>
       </c>
       <c r="G195" t="s">
@@ -8208,7 +8976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8224,7 +8992,7 @@
       <c r="E196" t="s">
         <v>9</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" t="s">
         <v>9</v>
       </c>
       <c r="G196" t="s">
@@ -8237,7 +9005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="256" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8245,15 +9013,15 @@
         <v>163</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>9</v>
+        <v>424</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" t="s">
         <v>9</v>
       </c>
       <c r="G197" t="s">
@@ -8266,7 +9034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8274,16 +9042,16 @@
         <v>164</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>9</v>
+        <v>426</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G198" t="s">
         <v>9</v>
@@ -8295,7 +9063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8311,7 +9079,7 @@
       <c r="E199" t="s">
         <v>9</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F199" t="s">
         <v>9</v>
       </c>
       <c r="G199" t="s">
@@ -8324,7 +9092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8340,7 +9108,7 @@
       <c r="E200" t="s">
         <v>9</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" t="s">
         <v>9</v>
       </c>
       <c r="G200" t="s">
@@ -8353,23 +9121,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D201" s="4"/>
       <c r="E201" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="3" t="s">
+      <c r="F201" t="s">
         <v>9</v>
       </c>
       <c r="G201" t="s">
@@ -8382,23 +9145,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C202" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D202" s="4"/>
       <c r="E202" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="3" t="s">
+      <c r="F202" t="s">
         <v>9</v>
       </c>
       <c r="G202" t="s">
@@ -8408,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8427,7 +9185,7 @@
       <c r="E203" t="s">
         <v>9</v>
       </c>
-      <c r="F203" s="3" t="s">
+      <c r="F203" t="s">
         <v>9</v>
       </c>
       <c r="G203" t="s">
@@ -8440,7 +9198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8456,7 +9214,7 @@
       <c r="E204" t="s">
         <v>9</v>
       </c>
-      <c r="F204" s="3" t="s">
+      <c r="F204" t="s">
         <v>9</v>
       </c>
       <c r="G204" t="s">
@@ -8469,7 +9227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8485,7 +9243,7 @@
       <c r="E205" t="s">
         <v>9</v>
       </c>
-      <c r="F205" s="3" t="s">
+      <c r="F205" t="s">
         <v>9</v>
       </c>
       <c r="G205" t="s">
@@ -8498,7 +9256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8514,7 +9272,7 @@
       <c r="E206" t="s">
         <v>9</v>
       </c>
-      <c r="F206" s="3" t="s">
+      <c r="F206" t="s">
         <v>9</v>
       </c>
       <c r="G206" t="s">
@@ -8527,7 +9285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8543,7 +9301,7 @@
       <c r="E207" t="s">
         <v>9</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="F207" t="s">
         <v>9</v>
       </c>
       <c r="G207" t="s">
@@ -8556,7 +9314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8572,7 +9330,7 @@
       <c r="E208" t="s">
         <v>9</v>
       </c>
-      <c r="F208" s="3" t="s">
+      <c r="F208" t="s">
         <v>9</v>
       </c>
       <c r="G208" t="s">
@@ -8585,7 +9343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8601,7 +9359,7 @@
       <c r="E209" t="s">
         <v>9</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F209" t="s">
         <v>9</v>
       </c>
       <c r="G209" t="s">
@@ -8614,7 +9372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8630,7 +9388,7 @@
       <c r="E210" t="s">
         <v>9</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" t="s">
         <v>9</v>
       </c>
       <c r="G210" t="s">
@@ -8643,7 +9401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8651,16 +9409,16 @@
         <v>177</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>9</v>
+        <v>429</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="G211" t="s">
         <v>9</v>
@@ -8672,7 +9430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8680,16 +9438,16 @@
         <v>178</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>9</v>
+        <v>412</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G212" t="s">
         <v>9</v>
@@ -8701,7 +9459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8717,7 +9475,7 @@
       <c r="E213" t="s">
         <v>9</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F213" t="s">
         <v>9</v>
       </c>
       <c r="G213" t="s">
@@ -8730,7 +9488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8738,15 +9496,15 @@
         <v>180</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>9</v>
+        <v>411</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="E214" t="s">
         <v>9</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="F214" t="s">
         <v>9</v>
       </c>
       <c r="G214" t="s">
@@ -8759,7 +9517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8775,7 +9533,7 @@
       <c r="E215" t="s">
         <v>9</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F215" t="s">
         <v>9</v>
       </c>
       <c r="G215" t="s">
@@ -8788,7 +9546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8804,7 +9562,7 @@
       <c r="E216" t="s">
         <v>9</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F216" t="s">
         <v>9</v>
       </c>
       <c r="G216" t="s">
@@ -8817,7 +9575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8833,7 +9591,7 @@
       <c r="E217" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F217" t="s">
         <v>9</v>
       </c>
       <c r="G217" t="s">
@@ -8846,15 +9604,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>184</v>
       </c>
-      <c r="C218" t="s">
-        <v>9</v>
+      <c r="C218" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>9</v>
@@ -8862,7 +9620,7 @@
       <c r="E218" t="s">
         <v>9</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F218" t="s">
         <v>9</v>
       </c>
       <c r="G218" t="s">
@@ -8872,10 +9630,10 @@
         <v>9</v>
       </c>
       <c r="I218" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8883,16 +9641,16 @@
         <v>185</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>9</v>
+        <v>434</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>9</v>
+        <v>403</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G219" t="s">
         <v>9</v>
@@ -8904,7 +9662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8920,7 +9678,7 @@
       <c r="E220" t="s">
         <v>9</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F220" t="s">
         <v>9</v>
       </c>
       <c r="G220" t="s">
@@ -8933,7 +9691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8949,7 +9707,7 @@
       <c r="E221" t="s">
         <v>9</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F221" t="s">
         <v>9</v>
       </c>
       <c r="G221" t="s">
@@ -8962,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8978,7 +9736,7 @@
       <c r="E222" t="s">
         <v>9</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F222" t="s">
         <v>9</v>
       </c>
       <c r="G222" t="s">
@@ -8991,7 +9749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9007,7 +9765,7 @@
       <c r="E223" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F223" t="s">
         <v>9</v>
       </c>
       <c r="G223" t="s">
@@ -9020,7 +9778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9028,16 +9786,16 @@
         <v>190</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>9</v>
+        <v>436</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>9</v>
+        <v>438</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="G224" t="s">
         <v>9</v>
@@ -9046,10 +9804,10 @@
         <v>9</v>
       </c>
       <c r="I224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9065,7 +9823,7 @@
       <c r="E225" t="s">
         <v>9</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F225" t="s">
         <v>9</v>
       </c>
       <c r="G225" t="s">
@@ -9075,26 +9833,26 @@
         <v>9</v>
       </c>
       <c r="I225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>192</v>
       </c>
-      <c r="C226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>9</v>
+      <c r="C226" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F226" t="s">
         <v>9</v>
       </c>
       <c r="G226" t="s">
@@ -9107,23 +9865,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>9</v>
+      <c r="C227" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F227" t="s">
         <v>9</v>
       </c>
       <c r="G227" t="s">
@@ -9136,7 +9894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9144,15 +9902,15 @@
         <v>194</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>9</v>
+        <v>445</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F228" t="s">
         <v>9</v>
       </c>
       <c r="G228" t="s">
@@ -9165,7 +9923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9181,7 +9939,7 @@
       <c r="E229" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="3" t="s">
+      <c r="F229" t="s">
         <v>9</v>
       </c>
       <c r="G229" t="s">
@@ -9191,7 +9949,7 @@
         <v>9</v>
       </c>
       <c r="I229" t="s">
-        <v>9</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
